--- a/biology/Zoologie/Gnathostomata_(Echinoidea)/Gnathostomata_(Echinoidea).xlsx
+++ b/biology/Zoologie/Gnathostomata_(Echinoidea)/Gnathostomata_(Echinoidea).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gnathostomata sont un super-ordre d'oursins irréguliers, généralement plats.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot Gnathostomata vient du grec ancien γνάθος / gnáthos, « mâchoire » et στόμα / stóma, « bouche ».
 Ce super-ordre porte le même nom que l'infra-embranchement des « vertébrés à mâchoires » (Gnathostomata). La coexistence de ces deux termes identiques au sein du règne animal provient de ce que la règle de non-homonymie du code international de nomenclature zoologique ne s'applique pas aux rangs supérieurs à la famille.
@@ -543,10 +557,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins irréguliers fortement aplatis (voire parfaitement plats), qui vivent le plus souvent enfouis dans le sable, qu'ils filtrent pour se nourrir.
-Si leur bouche est toujours située au centre de la face orale, l'anus a migré de l'apex (sommet) vers un côté du test (coquille), pour former un axe antéro-postérieur, caractéristique des oursins irréguliers. Leur appareil masticateur (Lanterne d'Aristote) s'est considérablement modifiée au cours de l'évolution, et s'est transformée en « moulin à sable » plat[1] (Gnathos signifie « mâchoire » en grec, et Stoma « trou »). Les radioles (piquants) se sont aussi modifiées pour former un fin duvet mobile servant à la progression dans le sable.
+Si leur bouche est toujours située au centre de la face orale, l'anus a migré de l'apex (sommet) vers un côté du test (coquille), pour former un axe antéro-postérieur, caractéristique des oursins irréguliers. Leur appareil masticateur (Lanterne d'Aristote) s'est considérablement modifiée au cours de l'évolution, et s'est transformée en « moulin à sable » plat (Gnathos signifie « mâchoire » en grec, et Stoma « trou »). Les radioles (piquants) se sont aussi modifiées pour former un fin duvet mobile servant à la progression dans le sable.
 			Mellita quinquiesperforata.
 			Echinocyamus pusillus.
 			Test de Mellita longifissa (famille des Clypeasteridae).
@@ -580,12 +596,14 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'ITIS      (23 août 2023)[2] et The Taxonomicon  (23 août 2023)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'ITIS      (23 août 2023) et The Taxonomicon  (23 août 2023) :
 Clypeasteroida A. Agassiz, 1872
 Holectypoida Duncan, 1889
-Selon le NCBI  (23 août 2023)[4] :
+Selon le NCBI  (23 août 2023) :
 Clypeasteroida A. Agassiz, 1872
 			Encope emarginata (face aborale et face orale) dessinée par Ernst Haeckel dans les Formes artistiques de la nature (1904).
 			Clypeaster rosaceus (face aborale et vue supérieure en tranche des organes internes), ibid.
